--- a/doc/201908各厂产品和机型/（楚雄卷烟厂）红塔集团省内四厂机台、机型、钢印号及生产品规统计表1.xlsx
+++ b/doc/201908各厂产品和机型/（楚雄卷烟厂）红塔集团省内四厂机台、机型、钢印号及生产品规统计表1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="10800"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="钢印信息" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>工厂</t>
   </si>
@@ -152,7 +152,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +189,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,18 +342,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -269,9 +599,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -297,12 +869,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,33 +911,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -639,31 +1258,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:G32"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.46484375" customWidth="1"/>
+    <col min="1" max="1" width="21.4666666666667" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.4" customWidth="1"/>
+    <col min="5" max="5" width="12.7333333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.7333333333333" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" customWidth="1"/>
+    <col min="8" max="8" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,7 +1331,7 @@
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -737,7 +1357,7 @@
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -761,7 +1381,7 @@
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -785,7 +1405,7 @@
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -809,7 +1429,7 @@
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -833,7 +1453,7 @@
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -857,7 +1477,7 @@
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -881,7 +1501,7 @@
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -905,7 +1525,7 @@
       <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
@@ -929,7 +1549,7 @@
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
@@ -953,7 +1573,7 @@
       <c r="G12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
@@ -977,129 +1597,129 @@
       <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
@@ -1123,7 +1743,7 @@
       <c r="G19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1149,139 +1769,139 @@
       <c r="G20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="E21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="E22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="E23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="E24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1289,20 +1909,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+    <row r="30" spans="2:5">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1314,8 +1934,8 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H24"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>